--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H2">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N2">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q2">
-        <v>26.92482829370644</v>
+        <v>2.200995908021889</v>
       </c>
       <c r="R2">
-        <v>242.323454643358</v>
+        <v>19.808963172197</v>
       </c>
       <c r="S2">
-        <v>0.02876606992814166</v>
+        <v>0.002606814306538912</v>
       </c>
       <c r="T2">
-        <v>0.02876606992814166</v>
+        <v>0.002606814306538912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H3">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q3">
-        <v>145.2962913855704</v>
+        <v>5.148232201159777</v>
       </c>
       <c r="R3">
-        <v>1307.666622470134</v>
+        <v>46.33408981043799</v>
       </c>
       <c r="S3">
-        <v>0.155232309476749</v>
+        <v>0.006097460384389845</v>
       </c>
       <c r="T3">
-        <v>0.155232309476749</v>
+        <v>0.006097460384389845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H4">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q4">
-        <v>44.90520480491288</v>
+        <v>1.591110269723556</v>
       </c>
       <c r="R4">
-        <v>404.146843244216</v>
+        <v>14.319992427512</v>
       </c>
       <c r="S4">
-        <v>0.04797602597367676</v>
+        <v>0.001884478294248198</v>
       </c>
       <c r="T4">
-        <v>0.04797602597367676</v>
+        <v>0.001884478294248197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.348101</v>
       </c>
       <c r="I5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N5">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q5">
-        <v>26.68408728831756</v>
+        <v>61.56232991829677</v>
       </c>
       <c r="R5">
-        <v>240.156785594858</v>
+        <v>554.0609692646709</v>
       </c>
       <c r="S5">
-        <v>0.02850886596308586</v>
+        <v>0.07291315798906453</v>
       </c>
       <c r="T5">
-        <v>0.02850886596308586</v>
+        <v>0.07291315798906452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.348101</v>
       </c>
       <c r="I6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q6">
         <v>143.9971642421816</v>
@@ -818,10 +818,10 @@
         <v>1295.974478179634</v>
       </c>
       <c r="S6">
-        <v>0.1538443421387732</v>
+        <v>0.1705472811100834</v>
       </c>
       <c r="T6">
-        <v>0.1538443421387732</v>
+        <v>0.1705472811100834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.348101</v>
       </c>
       <c r="I7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q7">
         <v>44.50369716913512</v>
@@ -880,10 +880,10 @@
         <v>400.533274522216</v>
       </c>
       <c r="S7">
-        <v>0.04754706142833308</v>
+        <v>0.05270926404340364</v>
       </c>
       <c r="T7">
-        <v>0.04754706142833309</v>
+        <v>0.05270926404340363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.518248</v>
       </c>
       <c r="I8">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J8">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N8">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q8">
-        <v>62.45918361093155</v>
+        <v>144.0983469412897</v>
       </c>
       <c r="R8">
-        <v>562.132652498384</v>
+        <v>1296.885122471608</v>
       </c>
       <c r="S8">
-        <v>0.06673042530884657</v>
+        <v>0.1706671198188462</v>
       </c>
       <c r="T8">
-        <v>0.06673042530884658</v>
+        <v>0.1706671198188462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.518248</v>
       </c>
       <c r="I9">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J9">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>242.324234</v>
       </c>
       <c r="O9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q9">
         <v>337.0527619580035</v>
@@ -1004,10 +1004,10 @@
         <v>3033.474857622032</v>
       </c>
       <c r="S9">
-        <v>0.3601019554959813</v>
+        <v>0.3991983623087408</v>
       </c>
       <c r="T9">
-        <v>0.3601019554959813</v>
+        <v>0.3991983623087408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.518248</v>
       </c>
       <c r="I10">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J10">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>74.892616</v>
       </c>
       <c r="O10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q10">
         <v>104.1693711618631</v>
@@ -1066,10 +1066,10 @@
         <v>937.5243404567681</v>
       </c>
       <c r="S10">
-        <v>0.1112929442864126</v>
+        <v>0.1233760617446846</v>
       </c>
       <c r="T10">
-        <v>0.1112929442864127</v>
+        <v>0.1233760617446846</v>
       </c>
     </row>
   </sheetData>
